--- a/P11.xlsx
+++ b/P11.xlsx
@@ -69,13 +69,13 @@
         <v>0.0</v>
       </c>
       <c r="C1" t="n">
-        <v>0.0</v>
+        <v>1.3552527156068805E-20</v>
       </c>
       <c r="D1" t="n">
         <v>0.0</v>
       </c>
       <c r="E1" t="n">
-        <v>-3.3087224502121107E-24</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="2">
@@ -83,16 +83,16 @@
         <v>0.7140307033202428</v>
       </c>
       <c r="B2" t="n">
-        <v>0.13988568434257417</v>
+        <v>0.1398856843425744</v>
       </c>
       <c r="C2" t="n">
-        <v>0.25810696597306887</v>
+        <v>0.2581069659730636</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13403820737376376</v>
+        <v>0.13403820737376398</v>
       </c>
       <c r="E2" t="n">
-        <v>0.33508650461281564</v>
+        <v>0.33508650461282247</v>
       </c>
     </row>
     <row r="3">
@@ -100,16 +100,16 @@
         <v>1.4280614066404855</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1958116780862905</v>
+        <v>0.19581167808628971</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.20709108801529535</v>
+        <v>-0.2070910880153038</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2261092083292803</v>
+        <v>0.22610920832927947</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1882717179873417</v>
+        <v>-0.1882717179873488</v>
       </c>
     </row>
     <row r="4">
@@ -117,16 +117,16 @@
         <v>2.1420921099607284</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.15949893332336318</v>
+        <v>-0.159498933323363</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6766193169899903</v>
+        <v>-0.6766193169900205</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1469719501959646</v>
+        <v>-0.14697195019596412</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.7427966468737405</v>
+        <v>-0.7427966468737471</v>
       </c>
     </row>
     <row r="5">
@@ -134,16 +134,16 @@
         <v>2.856122813280971</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5183065517983947</v>
+        <v>-0.5183065517983807</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.14859952671121263</v>
+        <v>-0.14859952671115495</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5573654123045858</v>
+        <v>-0.5573654123045717</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.20376603195011417</v>
+        <v>-0.20376603195005463</v>
       </c>
     </row>
     <row r="6">
@@ -151,16 +151,16 @@
         <v>3.5701535166012137</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2483760670353669</v>
+        <v>-0.24837606703535306</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8571996445976042</v>
+        <v>0.8571996445977336</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.29005091534597677</v>
+        <v>-0.2900509153459609</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9098092375207538</v>
+        <v>0.9098092375208972</v>
       </c>
     </row>
     <row r="7">
@@ -168,16 +168,16 @@
         <v>4.284184219921457</v>
       </c>
       <c r="B7" t="n">
-        <v>0.45784134697076545</v>
+        <v>0.4578413469707733</v>
       </c>
       <c r="C7" t="n">
-        <v>0.871575117130829</v>
+        <v>0.871575117130513</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4782720974411392</v>
+        <v>0.47827209744113086</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9696513137948172</v>
+        <v>0.9696513137947602</v>
       </c>
     </row>
     <row r="8">
@@ -185,16 +185,16 @@
         <v>4.998214923241699</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6910393362380735</v>
+        <v>0.6910393362379905</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.32515379317554693</v>
+        <v>-0.3251537931757041</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7541218848525484</v>
+        <v>0.7541218848524573</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.32148043211896177</v>
+        <v>-0.321480432119099</v>
       </c>
     </row>
     <row r="9">
@@ -202,16 +202,16 @@
         <v>5.712245626561942</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07055308067739546</v>
+        <v>0.07055308067738104</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.2112234682515632</v>
+        <v>-1.2112234682513727</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09316627097500005</v>
+        <v>0.09316627097498048</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.3139508997049278</v>
+        <v>-1.3139508997046236</v>
       </c>
     </row>
     <row r="10">
@@ -219,16 +219,16 @@
         <v>6.426276329882185</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.661450313720657</v>
+        <v>-0.6614503137205748</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.593217148824376</v>
+        <v>-0.5932171488243129</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.71047111639501</v>
+        <v>-0.7104711163949191</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6649357002792556</v>
+        <v>-0.6649357002792419</v>
       </c>
     </row>
     <row r="11">
@@ -236,16 +236,16 @@
         <v>7.140307033202427</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.6004219566691071</v>
+        <v>-0.6004219566692078</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7301933772461674</v>
+        <v>0.7301933772440744</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.6569251713963239</v>
+        <v>-0.6569251713964361</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7823437908393615</v>
+        <v>0.7823437908370325</v>
       </c>
     </row>
     <row r="12">
@@ -253,16 +253,16 @@
         <v>7.8543377365226705</v>
       </c>
       <c r="B12" t="n">
-        <v>0.13748036198199906</v>
+        <v>0.13748036198198954</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0851397734461397</v>
+        <v>1.08513977344671</v>
       </c>
       <c r="D12" t="n">
-        <v>0.14355656896794258</v>
+        <v>0.14355656896793081</v>
       </c>
       <c r="E12" t="n">
-        <v>1.184602096454928</v>
+        <v>1.1846020964555424</v>
       </c>
     </row>
     <row r="13">
@@ -270,16 +270,16 @@
         <v>8.568368439842914</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6297892245427505</v>
+        <v>0.629789224542814</v>
       </c>
       <c r="C13" t="n">
-        <v>0.16181736328430643</v>
+        <v>0.16181736328433044</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6828468758579372</v>
+        <v>0.6828468758580077</v>
       </c>
       <c r="E13" t="n">
-        <v>0.17929875900851303</v>
+        <v>0.17929875900848347</v>
       </c>
     </row>
     <row r="14">
@@ -287,16 +287,16 @@
         <v>9.282399143163156</v>
       </c>
       <c r="B14" t="n">
-        <v>0.37346348602292173</v>
+        <v>0.3734634860229689</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.7537575282525089</v>
+        <v>-0.7537575282523943</v>
       </c>
       <c r="D14" t="n">
-        <v>0.40330367052996835</v>
+        <v>0.40330367053004407</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.8240009082770744</v>
+        <v>-0.8240009082776567</v>
       </c>
     </row>
     <row r="15">
@@ -304,16 +304,16 @@
         <v>9.996429846483398</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.18841754134116223</v>
+        <v>-0.1884175413407558</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6439113894884446</v>
+        <v>-0.643911389497271</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.20919543141861455</v>
+        <v>-0.2091954314186157</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.6971831503399344</v>
+        <v>-0.6971831502763025</v>
       </c>
     </row>
     <row r="16">
@@ -321,16 +321,16 @@
         <v>10.710460549803642</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.4010129921031117</v>
+        <v>-0.401012992105805</v>
       </c>
       <c r="C16" t="n">
-        <v>0.056342575177412334</v>
+        <v>0.056342575181191755</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4331497367020188</v>
+        <v>-0.4331497367050711</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07687643062518487</v>
+        <v>0.07687643062895472</v>
       </c>
     </row>
     <row r="17">
@@ -338,16 +338,16 @@
         <v>11.424491253123884</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.20336389084898085</v>
+        <v>-0.20336389084898115</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3914919960452546</v>
+        <v>0.3914919960515688</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.208517651474454</v>
+        <v>-0.2085176514745019</v>
       </c>
       <c r="E17" t="n">
-        <v>0.43267025259003056</v>
+        <v>0.432670252596024</v>
       </c>
     </row>
     <row r="18">
@@ -355,16 +355,16 @@
         <v>12.138521956444126</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03389721862476307</v>
+        <v>0.033897218627180085</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2309942769273398</v>
+        <v>0.23099427692905974</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0453624214089616</v>
+        <v>0.04536242141167913</v>
       </c>
       <c r="E18" t="n">
-        <v>0.23255522573534101</v>
+        <v>0.2325552257388111</v>
       </c>
     </row>
     <row r="19">
@@ -372,16 +372,16 @@
         <v>12.85255265976437</v>
       </c>
       <c r="B19" t="n">
-        <v>0.13637678822450042</v>
+        <v>0.13637678822478166</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09330990949953535</v>
+        <v>0.09330990950272187</v>
       </c>
       <c r="D19" t="n">
-        <v>0.13903443744222535</v>
+        <v>0.1390344374421193</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07624558131149822</v>
+        <v>0.0762455813221492</v>
       </c>
     </row>
     <row r="20">
@@ -389,16 +389,16 @@
         <v>13.566583363084613</v>
       </c>
       <c r="B20" t="n">
-        <v>0.20666622939308305</v>
+        <v>0.20666622939460666</v>
       </c>
       <c r="C20" t="n">
-        <v>0.10046243891106728</v>
+        <v>0.10046243894770295</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2057555603545765</v>
+        <v>0.20575556035610235</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1113511244825028</v>
+        <v>0.11135112451792102</v>
       </c>
     </row>
     <row r="21">
@@ -406,16 +406,16 @@
         <v>14.280614066404855</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2252030861743375</v>
+        <v>0.22520308617198118</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.10491056788906228</v>
+        <v>-0.10491056787941523</v>
       </c>
       <c r="D21" t="n">
-        <v>0.23892417582165054</v>
+        <v>0.23892417581860825</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.08364143928095477</v>
+        <v>-0.08364143926370901</v>
       </c>
     </row>
     <row r="22">
@@ -423,16 +423,16 @@
         <v>14.994644769725099</v>
       </c>
       <c r="B22" t="n">
-        <v>0.00960249995629588</v>
+        <v>0.009602499967694456</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.48333253159089673</v>
+        <v>-0.4833325316137132</v>
       </c>
       <c r="D22" t="n">
-        <v>0.025719941624616174</v>
+        <v>0.02571994163793223</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.5035973502904654</v>
+        <v>-0.5035973503184863</v>
       </c>
     </row>
     <row r="23">
@@ -440,16 +440,16 @@
         <v>15.708675473045341</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.3567028822968224</v>
+        <v>-0.3567028822960706</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.42241719659798854</v>
+        <v>-0.4224171966287503</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3691688042696763</v>
+        <v>-0.36916880426858123</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.4726462779845399</v>
+        <v>-0.4726462780253347</v>
       </c>
     </row>
     <row r="24">
@@ -457,16 +457,16 @@
         <v>16.422706176365583</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.4317225883632939</v>
+        <v>-0.4317225883790498</v>
       </c>
       <c r="C24" t="n">
-        <v>0.27809725988019973</v>
+        <v>0.27809725990520295</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.468746007409593</v>
+        <v>-0.4687460074236115</v>
       </c>
       <c r="E24" t="n">
-        <v>0.271422000578999</v>
+        <v>0.27142200049974563</v>
       </c>
     </row>
     <row r="25">
@@ -474,16 +474,16 @@
         <v>17.136736879685827</v>
       </c>
       <c r="B25" t="n">
-        <v>0.007541452508406779</v>
+        <v>0.007541452508925073</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8376975562346606</v>
+        <v>0.8376975571320447</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.00805876449156925</v>
+        <v>-0.00805876449025662</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8993270518952674</v>
+        <v>0.8993270530757371</v>
       </c>
     </row>
     <row r="26">
@@ -491,16 +491,16 @@
         <v>17.850767583006068</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5257512471105776</v>
+        <v>0.5257512470767045</v>
       </c>
       <c r="C26" t="n">
-        <v>0.44113344040873775</v>
+        <v>0.44113343940643424</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5581389905232541</v>
+        <v>0.5581389904871866</v>
       </c>
       <c r="E26" t="n">
-        <v>0.49685012196909</v>
+        <v>0.4968501209027117</v>
       </c>
     </row>
     <row r="27">
@@ -508,16 +508,16 @@
         <v>18.56479828632631</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4878367643006612</v>
+        <v>0.4878367643303435</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.5503888386477335</v>
+        <v>-0.5503888387356792</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5325585385419211</v>
+        <v>0.532558538549065</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.5770035620436845</v>
+        <v>-0.5770035619420607</v>
       </c>
     </row>
     <row r="28">
@@ -525,16 +525,16 @@
         <v>19.278828989646556</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.11121470656744145</v>
+        <v>-0.11121470656623468</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.9439287475802912</v>
+        <v>-0.9439287474409854</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1093430944044334</v>
+        <v>-0.10934309437965369</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.0229299050741436</v>
+        <v>-1.0229299062686017</v>
       </c>
     </row>
     <row r="29">
@@ -542,16 +542,16 @@
         <v>19.992859692966796</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.5889269221518991</v>
+        <v>-0.5889269221517818</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.25125817993434174</v>
+        <v>-0.25125818166323116</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.6322607786053798</v>
+        <v>-0.6322607786082137</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.28392353144909593</v>
+        <v>-0.2839235333569735</v>
       </c>
     </row>
     <row r="30">
@@ -559,16 +559,16 @@
         <v>20.70689039628704</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.41091399490435226</v>
+        <v>-0.41091399478993434</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6815800435395938</v>
+        <v>0.6815800435949608</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.44666170547945067</v>
+        <v>-0.4466617053520143</v>
       </c>
       <c r="E30" t="n">
-        <v>0.731560094257801</v>
+        <v>0.7315600943196758</v>
       </c>
     </row>
     <row r="31">
@@ -576,16 +576,16 @@
         <v>21.420921099607284</v>
       </c>
       <c r="B31" t="n">
-        <v>0.17698632025545194</v>
+        <v>0.17698631810124674</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7864410695962464</v>
+        <v>0.7864410652742677</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1879597341824999</v>
+        <v>0.1879597317916578</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8513305873597657</v>
+        <v>0.851330582026303</v>
       </c>
     </row>
     <row r="32">
@@ -593,16 +593,16 @@
         <v>22.134951802927525</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5087665942171655</v>
+        <v>0.5087665953346945</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0714572000310485</v>
+        <v>0.07145719790616692</v>
       </c>
       <c r="D32" t="n">
-        <v>0.546939121464058</v>
+        <v>0.5469391230976728</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07615315718558338</v>
+        <v>0.07615316929562577</v>
       </c>
     </row>
     <row r="33">
@@ -610,16 +610,16 @@
         <v>22.84898250624777</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3017015676873247</v>
+        <v>0.301701568063897</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.5622839960952402</v>
+        <v>-0.5622840098929511</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3219511780979625</v>
+        <v>0.3219511785377877</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.6083771266419055</v>
+        <v>-0.6083771436639333</v>
       </c>
     </row>
     <row r="34">
@@ -627,16 +627,16 @@
         <v>23.563013209568012</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.12604905303120634</v>
+        <v>-0.12604905300081254</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.5236848898198503</v>
+        <v>-0.5236848990643882</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1378602459495777</v>
+        <v>-0.137860246258822</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.5576563829803947</v>
+        <v>-0.5576564015925628</v>
       </c>
     </row>
     <row r="35">
@@ -644,16 +644,16 @@
         <v>24.277043912888253</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.3462294764533783</v>
+        <v>-0.3462294671991681</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.07374133512242492</v>
+        <v>-0.0737412931138402</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.36785178873524477</v>
+        <v>-0.36785177994206236</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.06826900605037925</v>
+        <v>-0.06826904571310635</v>
       </c>
     </row>
     <row r="36">
@@ -661,16 +661,16 @@
         <v>24.991074616208497</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.26125198502711633</v>
+        <v>-0.26125197645246034</v>
       </c>
       <c r="C36" t="n">
-        <v>0.26716945888548677</v>
+        <v>0.26716957680022024</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.27202973812562137</v>
+        <v>-0.27202972683324006</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2860325685126964</v>
+        <v>0.28603270359596816</v>
       </c>
     </row>
     <row r="37">
@@ -678,16 +678,16 @@
         <v>25.70510531952874</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.028061609723189464</v>
+        <v>-0.028061601045139883</v>
       </c>
       <c r="C37" t="n">
-        <v>0.35094822043656887</v>
+        <v>0.35094819043183645</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.028457291066591717</v>
+        <v>-0.028457281279955518</v>
       </c>
       <c r="E37" t="n">
-        <v>0.36033058418081054</v>
+        <v>0.3603305486496759</v>
       </c>
     </row>
     <row r="38">
@@ -695,16 +695,16 @@
         <v>26.41913602284898</v>
       </c>
       <c r="B38" t="n">
-        <v>0.20302286747404794</v>
+        <v>0.2030228657320417</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2733192737867696</v>
+        <v>0.2733192431786434</v>
       </c>
       <c r="D38" t="n">
-        <v>0.20810070668371825</v>
+        <v>0.20810070580021872</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2819417937974028</v>
+        <v>0.28194175370559627</v>
       </c>
     </row>
     <row r="39">
@@ -712,16 +712,16 @@
         <v>27.133166726169225</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3217246999010938</v>
+        <v>0.32172467506052316</v>
       </c>
       <c r="C39" t="n">
-        <v>0.025837624494074774</v>
+        <v>0.02583762241746959</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3350515971144902</v>
+        <v>0.33505157048560474</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03856961815316547</v>
+        <v>0.03856955873424095</v>
       </c>
     </row>
     <row r="40">
@@ -729,16 +729,16 @@
         <v>27.84719742948947</v>
       </c>
       <c r="B40" t="n">
-        <v>0.20340666921920003</v>
+        <v>0.20340665667068097</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.3613721133861175</v>
+        <v>-0.3613720382133269</v>
       </c>
       <c r="D40" t="n">
-        <v>0.22094822859558874</v>
+        <v>0.22094821330673634</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.3669447420180839</v>
+        <v>-0.36694463369797714</v>
       </c>
     </row>
     <row r="41">
@@ -746,16 +746,16 @@
         <v>28.56122813280971</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.14602973453067528</v>
+        <v>-0.14602969044902553</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.5437112902642111</v>
+        <v>-0.5437112518584121</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.14380208946228462</v>
+        <v>-0.1438020398641093</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.5791887751798904</v>
+        <v>-0.5791887676119145</v>
       </c>
     </row>
     <row r="42">
@@ -763,16 +763,16 @@
         <v>29.275258836129954</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.43579315727894313</v>
+        <v>-0.43579315818218983</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.1728911509296088</v>
+        <v>-0.17289119458315177</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.46014536226560465</v>
+        <v>-0.4601453628888443</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.2029102376798406</v>
+        <v>-0.20291028762208815</v>
       </c>
     </row>
     <row r="43">
@@ -780,16 +780,16 @@
         <v>29.989289539450198</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.3160789802213001</v>
+        <v>-0.31607903695301054</v>
       </c>
       <c r="C43" t="n">
-        <v>0.49999655771768586</v>
+        <v>0.49999631418637336</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.34546066069201303</v>
+        <v>-0.34546072312939086</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5199644639325085</v>
+        <v>0.5199642048354398</v>
       </c>
     </row>
     <row r="44">
@@ -797,16 +797,16 @@
         <v>30.703320242770438</v>
       </c>
       <c r="B44" t="n">
-        <v>0.16823541158984057</v>
+        <v>0.16823536411621934</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7257701985697026</v>
+        <v>0.7257702153911554</v>
       </c>
       <c r="D44" t="n">
-        <v>0.16913853056423633</v>
+        <v>0.16913847606939553</v>
       </c>
       <c r="E44" t="n">
-        <v>0.782199333320769</v>
+        <v>0.7821993562637496</v>
       </c>
     </row>
     <row r="45">
@@ -814,16 +814,16 @@
         <v>31.417350946090682</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5219979333572959</v>
+        <v>0.5219979612437999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.155204016403953</v>
+        <v>0.1552042377652691</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5567799727816031</v>
+        <v>0.5567800023473941</v>
       </c>
       <c r="E45" t="n">
-        <v>0.18241037105486455</v>
+        <v>0.18241058131302068</v>
       </c>
     </row>
     <row r="46">
@@ -831,16 +831,16 @@
         <v>32.131381649410926</v>
       </c>
       <c r="B46" t="n">
-        <v>0.33681584157389227</v>
+        <v>0.3368159072560445</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.62641555364575</v>
+        <v>-0.6264154458339877</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3676300866832515</v>
+        <v>0.36763016042408364</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.6640353946687803</v>
+        <v>-0.6640352759596352</v>
       </c>
     </row>
     <row r="47">
@@ -848,16 +848,16 @@
         <v>32.84541235273117</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.20656771911559674</v>
+        <v>-0.20656772128619036</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.7406747156705911</v>
+        <v>-0.7406749592269187</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.21478252250121704</v>
+        <v>-0.21478252102142412</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.8001908165937961</v>
+        <v>-0.8001910818559478</v>
       </c>
     </row>
     <row r="48">
@@ -865,16 +865,16 @@
         <v>33.55944305605141</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.5257869418065346</v>
+        <v>-0.5257871836896743</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.06963109581703819</v>
+        <v>-0.06963126270784534</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.5629075703250207</v>
+        <v>-0.562907838194266</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.08271231502850221</v>
+        <v>-0.08271255846128847</v>
       </c>
     </row>
     <row r="49">
@@ -882,16 +882,16 @@
         <v>34.273473759371655</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.30096002754339873</v>
+        <v>-0.30096019437494315</v>
       </c>
       <c r="C49" t="n">
-        <v>0.625138788881541</v>
+        <v>0.6251392692265655</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.32540261620151323</v>
+        <v>-0.3254028091496106</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6686359687858804</v>
+        <v>0.6686364753923468</v>
       </c>
     </row>
     <row r="50">
@@ -899,16 +899,16 @@
         <v>34.987504462691895</v>
       </c>
       <c r="B50" t="n">
-        <v>0.19492129399629166</v>
+        <v>0.19492158032678736</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6294020857699819</v>
+        <v>0.6294025521867119</v>
       </c>
       <c r="D50" t="n">
-        <v>0.20647702057605546</v>
+        <v>0.20647733385957057</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6758609339763721</v>
+        <v>0.6758614667421246</v>
       </c>
     </row>
     <row r="51">
@@ -916,16 +916,16 @@
         <v>35.701535166012135</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4520948832639538</v>
+        <v>0.4520952559567378</v>
       </c>
       <c r="C51" t="n">
-        <v>0.04218836867845334</v>
+        <v>0.04218806549737228</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4823851196223457</v>
+        <v>0.4823855409578008</v>
       </c>
       <c r="E51" t="n">
-        <v>0.04469827155620055</v>
+        <v>0.04469795348893862</v>
       </c>
     </row>
     <row r="52">
@@ -933,16 +933,16 @@
         <v>36.41556586933238</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2728665358869976</v>
+        <v>0.2728663983926787</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.48056650523596667</v>
+        <v>-0.48056732454276646</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2903373581823486</v>
+        <v>0.29033721575972743</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.5133377786926087</v>
+        <v>-0.5133386962759939</v>
       </c>
     </row>
     <row r="53">
@@ -950,16 +950,16 @@
         <v>37.12959657265262</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.11037009057432051</v>
+        <v>-0.11037062676945894</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.5042281383719528</v>
+        <v>-0.5042282815056247</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.1171603467996778</v>
+        <v>-0.11716094460739356</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.5333976131316008</v>
+        <v>-0.5333977935147436</v>
       </c>
     </row>
     <row r="54">
@@ -967,16 +967,16 @@
         <v>37.843627275972864</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.3520970247964903</v>
+        <v>-0.35209715794321994</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.13631694679685055</v>
+        <v>-0.13631596649723848</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.37139728672521205</v>
+        <v>-0.37139744741722575</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.141553764678917</v>
+        <v>-0.1415526696063256</v>
       </c>
     </row>
     <row r="55">
@@ -984,16 +984,16 @@
         <v>38.55765797929311</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.29664323143005</v>
+        <v>-0.29664271419801314</v>
       </c>
       <c r="C55" t="n">
-        <v>0.27153576943416974</v>
+        <v>0.2715362986193613</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.3126419866189405</v>
+        <v>-0.3126414166063796</v>
       </c>
       <c r="E55" t="n">
-        <v>0.28397367062853723</v>
+        <v>0.2839743472032082</v>
       </c>
     </row>
     <row r="56">
@@ -1001,16 +1001,16 @@
         <v>39.27168868261335</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.01772784541322102</v>
+        <v>-0.017727432692701713</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4600618760372229</v>
+        <v>0.46006092897591716</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.021742290741762996</v>
+        <v>-0.021741824106318485</v>
       </c>
       <c r="E56" t="n">
-        <v>0.47999038312401593</v>
+        <v>0.47998936444198564</v>
       </c>
     </row>
     <row r="57">
@@ -1018,16 +1018,16 @@
         <v>39.98571938593359</v>
       </c>
       <c r="B57" t="n">
-        <v>0.28086116182742915</v>
+        <v>0.2808607346744873</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3191862088345113</v>
+        <v>0.31918524810735527</v>
       </c>
       <c r="D57" t="n">
-        <v>0.291700359840283</v>
+        <v>0.29169989477071273</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3392436221436709</v>
+        <v>0.3392425235598472</v>
       </c>
     </row>
   </sheetData>

--- a/P11.xlsx
+++ b/P11.xlsx
@@ -69,7 +69,7 @@
         <v>0.0</v>
       </c>
       <c r="C1" t="n">
-        <v>1.3552527156068805E-20</v>
+        <v>-1.3552527156068805E-20</v>
       </c>
       <c r="D1" t="n">
         <v>0.0</v>
@@ -83,16 +83,16 @@
         <v>0.7140307033202428</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1398856843425744</v>
+        <v>0.13988568434257423</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2581069659730636</v>
+        <v>0.2581069659730683</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13403820737376398</v>
+        <v>0.13403820737376385</v>
       </c>
       <c r="E2" t="n">
-        <v>0.33508650461282247</v>
+        <v>0.33508650461281614</v>
       </c>
     </row>
     <row r="3">
@@ -100,16 +100,16 @@
         <v>1.4280614066404855</v>
       </c>
       <c r="B3" t="n">
-        <v>0.19581167808628971</v>
+        <v>0.19581167808629046</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2070910880153038</v>
+        <v>-0.20709108801529474</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22610920832927947</v>
+        <v>0.22610920832928033</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1882717179873488</v>
+        <v>-0.18827171798734177</v>
       </c>
     </row>
     <row r="4">
@@ -117,16 +117,16 @@
         <v>2.1420921099607284</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.159498933323363</v>
+        <v>-0.1594989333233634</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6766193169900205</v>
+        <v>-0.6766193169899922</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.14697195019596412</v>
+        <v>-0.14697195019596487</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.7427966468737471</v>
+        <v>-0.7427966468737442</v>
       </c>
     </row>
     <row r="5">
@@ -134,16 +134,16 @@
         <v>2.856122813280971</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5183065517983807</v>
+        <v>-0.5183065517983794</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.14859952671115495</v>
+        <v>-0.14859952671114118</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5573654123045717</v>
+        <v>-0.5573654123045705</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.20376603195005463</v>
+        <v>-0.20376603195004214</v>
       </c>
     </row>
     <row r="6">
@@ -151,16 +151,16 @@
         <v>3.5701535166012137</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.24837606703535306</v>
+        <v>-0.2483760670353511</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8571996445977336</v>
+        <v>0.8571996445977769</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2900509153459609</v>
+        <v>-0.2900509153459585</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9098092375208972</v>
+        <v>0.9098092375209406</v>
       </c>
     </row>
     <row r="7">
@@ -168,16 +168,16 @@
         <v>4.284184219921457</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4578413469707733</v>
+        <v>0.4578413469707751</v>
       </c>
       <c r="C7" t="n">
-        <v>0.871575117130513</v>
+        <v>0.8715751171303762</v>
       </c>
       <c r="D7" t="n">
-        <v>0.47827209744113086</v>
+        <v>0.4782720974411276</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9696513137947602</v>
+        <v>0.9696513137947739</v>
       </c>
     </row>
     <row r="8">
@@ -185,16 +185,16 @@
         <v>4.998214923241699</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6910393362379905</v>
+        <v>0.691039336238048</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3251537931757041</v>
+        <v>-0.3251537931756168</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7541218848524573</v>
+        <v>0.7541218848525205</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.321480432119099</v>
+        <v>-0.32148043211901334</v>
       </c>
     </row>
     <row r="9">
@@ -202,16 +202,16 @@
         <v>5.712245626561942</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07055308067738104</v>
+        <v>0.0705530806773951</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.2112234682513727</v>
+        <v>-1.2112234682514804</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09316627097498048</v>
+        <v>0.09316627097499827</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.3139508997046236</v>
+        <v>-1.3139508997047942</v>
       </c>
     </row>
     <row r="10">
@@ -219,16 +219,16 @@
         <v>6.426276329882185</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.6614503137205748</v>
+        <v>-0.6614503137206323</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5932171488243129</v>
+        <v>-0.5932171488243734</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7104711163949191</v>
+        <v>-0.7104711163949825</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6649357002792419</v>
+        <v>-0.6649357002792676</v>
       </c>
     </row>
     <row r="11">
@@ -236,16 +236,16 @@
         <v>7.140307033202427</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.6004219566692078</v>
+        <v>-0.6004219566691642</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7301933772440744</v>
+        <v>0.7301933772455163</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.6569251713964361</v>
+        <v>-0.656925171396388</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7823437908370325</v>
+        <v>0.7823437908386361</v>
       </c>
     </row>
     <row r="12">
@@ -253,16 +253,16 @@
         <v>7.8543377365226705</v>
       </c>
       <c r="B12" t="n">
-        <v>0.13748036198198954</v>
+        <v>0.13748036198200717</v>
       </c>
       <c r="C12" t="n">
-        <v>1.08513977344671</v>
+        <v>1.085139773446368</v>
       </c>
       <c r="D12" t="n">
-        <v>0.14355656896793081</v>
+        <v>0.14355656896795044</v>
       </c>
       <c r="E12" t="n">
-        <v>1.1846020964555424</v>
+        <v>1.1846020964551751</v>
       </c>
     </row>
     <row r="13">
@@ -270,16 +270,16 @@
         <v>8.568368439842914</v>
       </c>
       <c r="B13" t="n">
-        <v>0.629789224542814</v>
+        <v>0.6297892245428008</v>
       </c>
       <c r="C13" t="n">
-        <v>0.16181736328433044</v>
+        <v>0.16181736328429952</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6828468758580077</v>
+        <v>0.6828468758579935</v>
       </c>
       <c r="E13" t="n">
-        <v>0.17929875900848347</v>
+        <v>0.17929875900840964</v>
       </c>
     </row>
     <row r="14">
@@ -287,16 +287,16 @@
         <v>9.282399143163156</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3734634860229689</v>
+        <v>0.37346348602297325</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.7537575282523943</v>
+        <v>-0.7537575282521531</v>
       </c>
       <c r="D14" t="n">
-        <v>0.40330367053004407</v>
+        <v>0.4033036705300679</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.8240009082776567</v>
+        <v>-0.8240009082780585</v>
       </c>
     </row>
     <row r="15">
@@ -304,16 +304,16 @@
         <v>9.996429846483398</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.1884175413407558</v>
+        <v>-0.1884175413403257</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.643911389497271</v>
+        <v>-0.6439113895055587</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2091954314186157</v>
+        <v>-0.20919543141855487</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.6971831502763025</v>
+        <v>-0.697183150216446</v>
       </c>
     </row>
     <row r="16">
@@ -321,16 +321,16 @@
         <v>10.710460549803642</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.401012992105805</v>
+        <v>-0.40101299210841346</v>
       </c>
       <c r="C16" t="n">
-        <v>0.056342575181191755</v>
+        <v>0.056342575185453825</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4331497367050711</v>
+        <v>-0.43314973670802803</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07687643062895472</v>
+        <v>0.07687643063330753</v>
       </c>
     </row>
     <row r="17">
@@ -338,16 +338,16 @@
         <v>11.424491253123884</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.20336389084898115</v>
+        <v>-0.20336389084892906</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3914919960515688</v>
+        <v>0.391491996058718</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2085176514745019</v>
+        <v>-0.20851765147448076</v>
       </c>
       <c r="E17" t="n">
-        <v>0.432670252596024</v>
+        <v>0.4326702526026559</v>
       </c>
     </row>
     <row r="18">
@@ -355,16 +355,16 @@
         <v>12.138521956444126</v>
       </c>
       <c r="B18" t="n">
-        <v>0.033897218627180085</v>
+        <v>0.0338972186294427</v>
       </c>
       <c r="C18" t="n">
-        <v>0.23099427692905974</v>
+        <v>0.2309942769282181</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04536242141167913</v>
+        <v>0.0453624214142242</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2325552257388111</v>
+        <v>0.23255522573939144</v>
       </c>
     </row>
     <row r="19">
@@ -372,16 +372,16 @@
         <v>12.85255265976437</v>
       </c>
       <c r="B19" t="n">
-        <v>0.13637678822478166</v>
+        <v>0.13637678822507387</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09330990950272187</v>
+        <v>0.09330990950624754</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1390344374421193</v>
+        <v>0.139034437442054</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0762455813221492</v>
+        <v>0.07624558133384349</v>
       </c>
     </row>
     <row r="20">
@@ -389,16 +389,16 @@
         <v>13.566583363084613</v>
       </c>
       <c r="B20" t="n">
-        <v>0.20666622939460666</v>
+        <v>0.20666622939617235</v>
       </c>
       <c r="C20" t="n">
-        <v>0.10046243894770295</v>
+        <v>0.1004624389847886</v>
       </c>
       <c r="D20" t="n">
-        <v>0.20575556035610235</v>
+        <v>0.20575556035767406</v>
       </c>
       <c r="E20" t="n">
-        <v>0.11135112451792102</v>
+        <v>0.11135112455378092</v>
       </c>
     </row>
     <row r="21">
@@ -406,16 +406,16 @@
         <v>14.280614066404855</v>
       </c>
       <c r="B21" t="n">
-        <v>0.22520308617198118</v>
+        <v>0.22520308616970175</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.10491056787941523</v>
+        <v>-0.10491056786936721</v>
       </c>
       <c r="D21" t="n">
-        <v>0.23892417581860825</v>
+        <v>0.23892417581565523</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.08364143926370901</v>
+        <v>-0.08364143924607113</v>
       </c>
     </row>
     <row r="22">
@@ -423,16 +423,16 @@
         <v>14.994644769725099</v>
       </c>
       <c r="B22" t="n">
-        <v>0.009602499967694456</v>
+        <v>0.009602499978419967</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.4833325316137132</v>
+        <v>-0.4833325316255701</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02571994163793223</v>
+        <v>0.025719941650486022</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.5035973503184863</v>
+        <v>-0.5035973503340903</v>
       </c>
     </row>
     <row r="23">
@@ -440,16 +440,16 @@
         <v>15.708675473045341</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.3567028822960706</v>
+        <v>-0.3567028822953445</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.4224171966287503</v>
+        <v>-0.4224171966569864</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.36916880426858123</v>
+        <v>-0.3691688042675284</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.4726462780253347</v>
+        <v>-0.4726462780623655</v>
       </c>
     </row>
     <row r="24">
@@ -457,16 +457,16 @@
         <v>16.422706176365583</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.4317225883790498</v>
+        <v>-0.4317225883937046</v>
       </c>
       <c r="C24" t="n">
-        <v>0.27809725990520295</v>
+        <v>0.27809725993008205</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.4687460074236115</v>
+        <v>-0.4687460074366635</v>
       </c>
       <c r="E24" t="n">
-        <v>0.27142200049974563</v>
+        <v>0.2714220004280096</v>
       </c>
     </row>
     <row r="25">
@@ -474,16 +474,16 @@
         <v>17.136736879685827</v>
       </c>
       <c r="B25" t="n">
-        <v>0.007541452508925073</v>
+        <v>0.007541452509878546</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8376975571320447</v>
+        <v>0.8376975579909283</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.00805876449025662</v>
+        <v>-0.008058764488419828</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8993270530757371</v>
+        <v>0.8993270542050207</v>
       </c>
     </row>
     <row r="26">
@@ -491,16 +491,16 @@
         <v>17.850767583006068</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5257512470767045</v>
+        <v>0.5257512470444685</v>
       </c>
       <c r="C26" t="n">
-        <v>0.44113343940643424</v>
+        <v>0.441133438505064</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5581389904871866</v>
+        <v>0.5581389904528639</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4968501209027117</v>
+        <v>0.4968501199437356</v>
       </c>
     </row>
     <row r="27">
@@ -508,16 +508,16 @@
         <v>18.56479828632631</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4878367643303435</v>
+        <v>0.4878367643579919</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.5503888387356792</v>
+        <v>-0.5503888388409478</v>
       </c>
       <c r="D27" t="n">
-        <v>0.532558538549065</v>
+        <v>0.5325585385555476</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.5770035619420607</v>
+        <v>-0.5770035618446651</v>
       </c>
     </row>
     <row r="28">
@@ -525,16 +525,16 @@
         <v>19.278828989646556</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.11121470656623468</v>
+        <v>-0.11121470656525018</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.9439287474409854</v>
+        <v>-0.9439287473029437</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.10934309437965369</v>
+        <v>-0.1093430943571054</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.0229299062686017</v>
+        <v>-1.0229299074265437</v>
       </c>
     </row>
     <row r="29">
@@ -542,16 +542,16 @@
         <v>19.992859692966796</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.5889269221517818</v>
+        <v>-0.5889269221513886</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.25125818166323116</v>
+        <v>-0.2512581833472884</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.6322607786082137</v>
+        <v>-0.6322607786106602</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.2839235333569735</v>
+        <v>-0.28392353521564917</v>
       </c>
     </row>
     <row r="30">
@@ -559,16 +559,16 @@
         <v>20.70689039628704</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.41091399478993434</v>
+        <v>-0.4109139946787358</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6815800435949608</v>
+        <v>0.6815800436446331</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.4466617053520143</v>
+        <v>-0.44666170522817505</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7315600943196758</v>
+        <v>0.7315600943763887</v>
       </c>
     </row>
     <row r="31">
@@ -576,16 +576,16 @@
         <v>21.420921099607284</v>
       </c>
       <c r="B31" t="n">
-        <v>0.17698631810124674</v>
+        <v>0.17698631606396892</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7864410652742677</v>
+        <v>0.7864410424152752</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1879597317916578</v>
+        <v>0.1879597295258863</v>
       </c>
       <c r="E31" t="n">
-        <v>0.851330582026303</v>
+        <v>0.8513305565654652</v>
       </c>
     </row>
     <row r="32">
@@ -593,16 +593,16 @@
         <v>22.134951802927525</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5087665953346945</v>
+        <v>0.5087665963689967</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07145719790616692</v>
+        <v>0.07145719658782781</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5469391230976728</v>
+        <v>0.5469391244885382</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07615316929562577</v>
+        <v>0.07615318280993455</v>
       </c>
     </row>
     <row r="33">
@@ -610,16 +610,16 @@
         <v>22.84898250624777</v>
       </c>
       <c r="B33" t="n">
-        <v>0.301701568063897</v>
+        <v>0.30170156744049414</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.5622840098929511</v>
+        <v>-0.5622839704695385</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3219511785377877</v>
+        <v>0.3219511779236171</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.6083771436639333</v>
+        <v>-0.6083771045832694</v>
       </c>
     </row>
     <row r="34">
@@ -627,16 +627,16 @@
         <v>23.563013209568012</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.12604905300081254</v>
+        <v>-0.12604905252869864</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.5236848990643882</v>
+        <v>-0.5236848864651781</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.137860246258822</v>
+        <v>-0.13786024561373755</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.5576564015925628</v>
+        <v>-0.557656405237777</v>
       </c>
     </row>
     <row r="35">
@@ -644,16 +644,16 @@
         <v>24.277043912888253</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.3462294671991681</v>
+        <v>-0.34622947163639256</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.0737412931138402</v>
+        <v>-0.07374132859688903</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.36785177994206236</v>
+        <v>-0.36785178550403647</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.06826904571310635</v>
+        <v>-0.06826897714150604</v>
       </c>
     </row>
     <row r="36">
@@ -661,16 +661,16 @@
         <v>24.991074616208497</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.26125197645246034</v>
+        <v>-0.26125197967386715</v>
       </c>
       <c r="C36" t="n">
-        <v>0.26716957680022024</v>
+        <v>0.26716955592365393</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.27202972683324006</v>
+        <v>-0.27202973069610176</v>
       </c>
       <c r="E36" t="n">
-        <v>0.28603270359596816</v>
+        <v>0.2860326830794152</v>
       </c>
     </row>
     <row r="37">
@@ -678,16 +678,16 @@
         <v>25.70510531952874</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.028061601045139883</v>
+        <v>-0.028061599593005603</v>
       </c>
       <c r="C37" t="n">
-        <v>0.35094819043183645</v>
+        <v>0.350948187621048</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.028457281279955518</v>
+        <v>-0.0284572797243185</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3603305486496759</v>
+        <v>0.36033054641448875</v>
       </c>
     </row>
     <row r="38">
@@ -695,16 +695,16 @@
         <v>26.41913602284898</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2030228657320417</v>
+        <v>0.203022868113618</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2733192431786434</v>
+        <v>0.2733192306261514</v>
       </c>
       <c r="D38" t="n">
-        <v>0.20810070580021872</v>
+        <v>0.20810070848314216</v>
       </c>
       <c r="E38" t="n">
-        <v>0.28194175370559627</v>
+        <v>0.281941743184362</v>
       </c>
     </row>
     <row r="39">
@@ -712,16 +712,16 @@
         <v>27.133166726169225</v>
       </c>
       <c r="B39" t="n">
-        <v>0.32172467506052316</v>
+        <v>0.32172467503579255</v>
       </c>
       <c r="C39" t="n">
-        <v>0.02583762241746959</v>
+        <v>0.025837621377293982</v>
       </c>
       <c r="D39" t="n">
-        <v>0.33505157048560474</v>
+        <v>0.3350515704879759</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03856955873424095</v>
+        <v>0.03856955814025425</v>
       </c>
     </row>
     <row r="40">
@@ -729,16 +729,16 @@
         <v>27.84719742948947</v>
       </c>
       <c r="B40" t="n">
-        <v>0.20340665667068097</v>
+        <v>0.2034066557344575</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.3613720382133269</v>
+        <v>-0.3613720417497101</v>
       </c>
       <c r="D40" t="n">
-        <v>0.22094821330673634</v>
+        <v>0.22094821157919262</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.36694463369797714</v>
+        <v>-0.3669446343780385</v>
       </c>
     </row>
     <row r="41">
@@ -746,16 +746,16 @@
         <v>28.56122813280971</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.14602969044902553</v>
+        <v>-0.1460296905538049</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.5437112518584121</v>
+        <v>-0.543711264619428</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1438020398641093</v>
+        <v>-0.1438020386221467</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.5791887676119145</v>
+        <v>-0.5791887190846438</v>
       </c>
     </row>
     <row r="42">
@@ -763,16 +763,16 @@
         <v>29.275258836129954</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.43579315818218983</v>
+        <v>-0.4357931561201409</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.17289119458315177</v>
+        <v>-0.17289119228764718</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.4601453628888443</v>
+        <v>-0.4601453611316775</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.20291028762208815</v>
+        <v>-0.20291029235782235</v>
       </c>
     </row>
     <row r="43">
@@ -780,16 +780,16 @@
         <v>29.989289539450198</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.31607903695301054</v>
+        <v>-0.3160790398876222</v>
       </c>
       <c r="C43" t="n">
-        <v>0.49999631418637336</v>
+        <v>0.4999963148349319</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.34546072312939086</v>
+        <v>-0.34546072591593197</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5199642048354398</v>
+        <v>0.5199642011875814</v>
       </c>
     </row>
     <row r="44">
@@ -797,16 +797,16 @@
         <v>30.703320242770438</v>
       </c>
       <c r="B44" t="n">
-        <v>0.16823536411621934</v>
+        <v>0.16823536700499583</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7257702153911554</v>
+        <v>0.7257702935809197</v>
       </c>
       <c r="D44" t="n">
-        <v>0.16913847606939553</v>
+        <v>0.1691384801335143</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7821993562637496</v>
+        <v>0.7821994530848991</v>
       </c>
     </row>
     <row r="45">
@@ -814,16 +814,16 @@
         <v>31.417350946090682</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5219979612437999</v>
+        <v>0.52199794341014</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1552042377652691</v>
+        <v>0.15520410410368082</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5567800023473941</v>
+        <v>0.5567799832720111</v>
       </c>
       <c r="E45" t="n">
-        <v>0.18241058131302068</v>
+        <v>0.1824104668674656</v>
       </c>
     </row>
     <row r="46">
@@ -831,16 +831,16 @@
         <v>32.131381649410926</v>
       </c>
       <c r="B46" t="n">
-        <v>0.3368159072560445</v>
+        <v>0.3368159358469714</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.6264154458339877</v>
+        <v>-0.6264154575341396</v>
       </c>
       <c r="D46" t="n">
-        <v>0.36763016042408364</v>
+        <v>0.36763019218765147</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.6640352759596352</v>
+        <v>-0.6640352829970451</v>
       </c>
     </row>
     <row r="47">
@@ -848,16 +848,16 @@
         <v>32.84541235273117</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.20656772128619036</v>
+        <v>-0.20656774927119792</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.7406749592269187</v>
+        <v>-0.7406750864204948</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.21478252102142412</v>
+        <v>-0.21478255190364262</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.8001910818559478</v>
+        <v>-0.8001912254790084</v>
       </c>
     </row>
     <row r="48">
@@ -865,16 +865,16 @@
         <v>33.55944305605141</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.5257871836896743</v>
+        <v>-0.5257872083649194</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.06963126270784534</v>
+        <v>-0.0696312337563015</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.562907838194266</v>
+        <v>-0.5629078651607242</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.08271255846128847</v>
+        <v>-0.08271249500726693</v>
       </c>
     </row>
     <row r="49">
@@ -882,16 +882,16 @@
         <v>34.273473759371655</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.30096019437494315</v>
+        <v>-0.30096015533450643</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6251392692265655</v>
+        <v>0.6251392891990742</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.3254028091496106</v>
+        <v>-0.3254027661327348</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6686364753923468</v>
+        <v>0.6686365202951411</v>
       </c>
     </row>
     <row r="50">
@@ -899,16 +899,16 @@
         <v>34.987504462691895</v>
       </c>
       <c r="B50" t="n">
-        <v>0.19492158032678736</v>
+        <v>0.19492161336448374</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6294025521867119</v>
+        <v>0.629402501569218</v>
       </c>
       <c r="D50" t="n">
-        <v>0.20647733385957057</v>
+        <v>0.20647737071586597</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6758614667421246</v>
+        <v>0.6758614062292907</v>
       </c>
     </row>
     <row r="51">
@@ -916,16 +916,16 @@
         <v>35.701535166012135</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4520952559567378</v>
+        <v>0.45209524218656544</v>
       </c>
       <c r="C51" t="n">
-        <v>0.04218806549737228</v>
+        <v>0.0421880086788117</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4823855409578008</v>
+        <v>0.4823855262609208</v>
       </c>
       <c r="E51" t="n">
-        <v>0.04469795348893862</v>
+        <v>0.044697885108629445</v>
       </c>
     </row>
     <row r="52">
@@ -933,16 +933,16 @@
         <v>36.41556586933238</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2728663983926787</v>
+        <v>0.27286635389073843</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.48056732454276646</v>
+        <v>-0.48056738241997216</v>
       </c>
       <c r="D52" t="n">
-        <v>0.29033721575972743</v>
+        <v>0.2903371662751677</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.5133386962759939</v>
+        <v>-0.513338762732622</v>
       </c>
     </row>
     <row r="53">
@@ -950,16 +950,16 @@
         <v>37.12959657265262</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.11037062676945894</v>
+        <v>-0.11037062687517374</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.5042282815056247</v>
+        <v>-0.5042281563328229</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.11716094460739356</v>
+        <v>-0.11716094611161997</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.5333977935147436</v>
+        <v>-0.5333976648194381</v>
       </c>
     </row>
     <row r="54">
@@ -967,16 +967,16 @@
         <v>37.843627275972864</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.35209715794321994</v>
+        <v>-0.3520971062301402</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.13631596649723848</v>
+        <v>-0.13631593345113555</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.37139744741722575</v>
+        <v>-0.37139739201981053</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1415526696063256</v>
+        <v>-0.14155262806078392</v>
       </c>
     </row>
     <row r="55">
@@ -984,16 +984,16 @@
         <v>38.55765797929311</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.29664271419801314</v>
+        <v>-0.2966426860801037</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2715362986193613</v>
+        <v>0.2715362208785115</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.3126414166063796</v>
+        <v>-0.31264138387435997</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2839743472032082</v>
+        <v>0.28397419235927057</v>
       </c>
     </row>
     <row r="56">
@@ -1001,16 +1001,16 @@
         <v>39.27168868261335</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.017727432692701713</v>
+        <v>-0.017727499410365978</v>
       </c>
       <c r="C56" t="n">
-        <v>0.46006092897591716</v>
+        <v>0.4600608434280269</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.021741824106318485</v>
+        <v>-0.021741889874873157</v>
       </c>
       <c r="E56" t="n">
-        <v>0.47998936444198564</v>
+        <v>0.47998924268187787</v>
       </c>
     </row>
     <row r="57">
@@ -1018,16 +1018,16 @@
         <v>39.98571938593359</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2808607346744873</v>
+        <v>0.28086070267568625</v>
       </c>
       <c r="C57" t="n">
-        <v>0.31918524810735527</v>
+        <v>0.3191853864251318</v>
       </c>
       <c r="D57" t="n">
-        <v>0.29169989477071273</v>
+        <v>0.29169985951336097</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3392425235598472</v>
+        <v>0.3392427036420909</v>
       </c>
     </row>
   </sheetData>

--- a/P11.xlsx
+++ b/P11.xlsx
@@ -80,954 +80,2416 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.7140307033202428</v>
+        <v>0.2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.13988568434257423</v>
+        <v>0.017426370876243845</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2581069659730683</v>
+        <v>0.15968404251893245</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13403820737376385</v>
+        <v>0.005493955518349088</v>
       </c>
       <c r="E2" t="n">
-        <v>0.33508650461281614</v>
+        <v>0.07966139987642792</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.4280614066404855</v>
+        <v>0.4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.19581167808629046</v>
+        <v>0.05848804720016502</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.20709108801529474</v>
+        <v>0.23996786037008253</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22610920832928033</v>
+        <v>0.03714634319758077</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.18827171798734177</v>
+        <v>0.23648234366753487</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.1420921099607284</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1594989333233634</v>
+        <v>0.10985222488426359</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6766193169899922</v>
+        <v>0.2657200882245874</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.14697195019596487</v>
+        <v>0.09569429251013008</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.7427966468737442</v>
+        <v>0.33133811024446974</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.856122813280971</v>
+        <v>0.8</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5183065517983794</v>
+        <v>0.16137758858376994</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.14859952671114118</v>
+        <v>0.24000286600336368</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5573654123045705</v>
+        <v>0.16211883050672107</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.20376603195004214</v>
+        <v>0.31518530232665876</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.5701535166012137</v>
+        <v>1.0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2483760670353511</v>
+        <v>0.20168779001346201</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8571996445977769</v>
+        <v>0.15234921525248343</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2900509153459585</v>
+        <v>0.21579132174767124</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9098092375209406</v>
+        <v>0.2094136909472049</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.284184219921457</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4578413469707751</v>
+        <v>0.21830982550521488</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8715751171303762</v>
+        <v>0.005273386886767872</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4782720974411276</v>
+        <v>0.24194405448466405</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9696513137947739</v>
+        <v>0.04416703538049091</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.998214923241699</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="B8" t="n">
-        <v>0.691039336238048</v>
+        <v>0.20124025005918791</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.3251537931756168</v>
+        <v>-0.17982940820407248</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7541218848525205</v>
+        <v>0.23097054389728927</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.32148043211901334</v>
+        <v>-0.15824067955404014</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.712245626561942</v>
+        <v>1.6</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0705530806773951</v>
+        <v>0.145940324239983</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.2112234682514804</v>
+        <v>-0.3714712859803329</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09316627097499827</v>
+        <v>0.17784748408880116</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.3139508997047942</v>
+        <v>-0.3723212894100612</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.426276329882185</v>
+        <v>1.8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.6614503137206323</v>
+        <v>0.05441621957104827</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5932171488243734</v>
+        <v>-0.5367581019921063</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.7104711163949825</v>
+        <v>0.08351200662801285</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6649357002792676</v>
+        <v>-0.5642875790367822</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7.140307033202427</v>
+        <v>2.0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.6004219566691642</v>
+        <v>-0.06501538143935022</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7301933772455163</v>
+        <v>-0.6460472260974366</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.656925171396388</v>
+        <v>-0.044004526756287236</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7823437908386361</v>
+        <v>-0.6985626841131369</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7.8543377365226705</v>
+        <v>2.2</v>
       </c>
       <c r="B12" t="n">
-        <v>0.13748036198200717</v>
+        <v>-0.1987064872877433</v>
       </c>
       <c r="C12" t="n">
-        <v>1.085139773446368</v>
+        <v>-0.6762288067782806</v>
       </c>
       <c r="D12" t="n">
-        <v>0.14355656896795044</v>
+        <v>-0.19013847276497836</v>
       </c>
       <c r="E12" t="n">
-        <v>1.1846020964551751</v>
+        <v>-0.7466468639310375</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8.568368439842914</v>
+        <v>2.4000000000000004</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6297892245428008</v>
+        <v>-0.3293287713241012</v>
       </c>
       <c r="C13" t="n">
-        <v>0.16181736328429952</v>
+        <v>-0.6141706952643806</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6828468758579935</v>
+        <v>-0.3358144255424503</v>
       </c>
       <c r="E13" t="n">
-        <v>0.17929875900840964</v>
+        <v>-0.6924889329154061</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.282399143163156</v>
+        <v>2.6</v>
       </c>
       <c r="B14" t="n">
-        <v>0.37346348602297325</v>
+        <v>-0.43816790632538954</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.7537575282521531</v>
+        <v>-0.45947244689999617</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4033036705300679</v>
+        <v>-0.460184287577772</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.8240009082780585</v>
+        <v>-0.534585612673581</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9.996429846483398</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.1884175413403257</v>
+        <v>-0.5077946497966406</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6439113895055587</v>
+        <v>-0.22534493110685475</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.20919543141855487</v>
+        <v>-0.5435918034105655</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.697183150216446</v>
+        <v>-0.2862911632571402</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10.710460549803642</v>
+        <v>3.0</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.40101299210841346</v>
+        <v>-0.524690307664117</v>
       </c>
       <c r="C16" t="n">
-        <v>0.056342575185453825</v>
+        <v>0.06270690864005832</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.43314973670802803</v>
+        <v>-0.5704492388308988</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07687643063330753</v>
+        <v>0.025417852255859436</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11.424491253123884</v>
+        <v>3.2</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.20336389084892906</v>
+        <v>-0.48141477568225016</v>
       </c>
       <c r="C17" t="n">
-        <v>0.391491996058718</v>
+        <v>0.3700581684852776</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.20851765147448076</v>
+        <v>-0.5316844139149967</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4326702526026559</v>
+        <v>0.3630358634438527</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12.138521956444126</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0338972186294427</v>
+        <v>-0.3779985702353872</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2309942769282181</v>
+        <v>0.6574559273709759</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0453624214142242</v>
+        <v>-0.42638954866389034</v>
       </c>
       <c r="E18" t="n">
-        <v>0.23255522573939144</v>
+        <v>0.6833370037761589</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12.85255265976437</v>
+        <v>3.6</v>
       </c>
       <c r="B19" t="n">
-        <v>0.13637678822507387</v>
+        <v>-0.2223533348031733</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09330990950624754</v>
+        <v>0.8862379041574017</v>
       </c>
       <c r="D19" t="n">
-        <v>0.139034437442054</v>
+        <v>-0.2623927699667313</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07624558133384349</v>
+        <v>0.9431948022829698</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>13.566583363084613</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="B20" t="n">
-        <v>0.20666622939617235</v>
+        <v>-0.02962131636409236</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1004624389847886</v>
+        <v>1.023605758085696</v>
       </c>
       <c r="D20" t="n">
-        <v>0.20575556035767406</v>
+        <v>-0.055639622569631494</v>
       </c>
       <c r="E20" t="n">
-        <v>0.11135112455378092</v>
+        <v>1.1055128400230745</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14.280614066404855</v>
+        <v>4.0</v>
       </c>
       <c r="B21" t="n">
-        <v>0.22520308616970175</v>
+        <v>0.1794754028365296</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.10491056786936721</v>
+        <v>1.0472363319172426</v>
       </c>
       <c r="D21" t="n">
-        <v>0.23892417581565523</v>
+        <v>0.1715515792907767</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.08364143924607113</v>
+        <v>1.1444270413736313</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>14.994644769725099</v>
+        <v>4.2</v>
       </c>
       <c r="B22" t="n">
-        <v>0.009602499978419967</v>
+        <v>0.38108627633256925</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.4833325316255701</v>
+        <v>0.9485802287274634</v>
       </c>
       <c r="D22" t="n">
-        <v>0.025719941650486022</v>
+        <v>0.39314255652291324</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.5035973503340903</v>
+        <v>1.049081935971458</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>15.708675473045341</v>
+        <v>4.4</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.3567028822953445</v>
+        <v>0.5511708709968236</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.4224171966569864</v>
+        <v>0.7343757849575105</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3691688042675284</v>
+        <v>0.582595961537567</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.4726462780623655</v>
+        <v>0.8254682899117382</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>16.422706176365583</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.4317225883937046</v>
+        <v>0.6685410785804337</v>
       </c>
       <c r="C24" t="n">
-        <v>0.27809725993008205</v>
+        <v>0.4261569182151714</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.4687460074366635</v>
+        <v>0.7162446812960326</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2714220004280096</v>
+        <v>0.49604792016823357</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>17.136736879685827</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>0.007541452509878546</v>
+        <v>0.7176060851148254</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8376975579909283</v>
+        <v>0.05780430644421158</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.008058764488419828</v>
+        <v>0.7763650119579586</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8993270542050207</v>
+        <v>0.09719748872908252</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>17.850767583006068</v>
+        <v>5.0</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5257512470444685</v>
+        <v>0.6904558811755923</v>
       </c>
       <c r="C26" t="n">
-        <v>0.441133438505064</v>
+        <v>-0.3285488977542333</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5581389904528639</v>
+        <v>0.7535446893990426</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4968501199437356</v>
+        <v>-0.32520900744457404</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>18.56479828632631</v>
+        <v>5.2</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4878367643579919</v>
+        <v>0.5880042690114997</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.5503888388409478</v>
+        <v>-0.687723645796476</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5325585385555476</v>
+        <v>0.6480281013147284</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.5770035618446651</v>
+        <v>-0.7214972602290213</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>19.278828989646556</v>
+        <v>5.4</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.11121470656525018</v>
+        <v>0.42003527682863834</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.9439287473029437</v>
+        <v>-0.977133882995371</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1093430943571054</v>
+        <v>0.46985561991240127</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.0229299074265437</v>
+        <v>-1.0444213748440268</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>19.992859692966796</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.5889269221513886</v>
+        <v>0.20413982333918365</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.2512581833472884</v>
+        <v>-1.1621224839415083</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.6322607786106602</v>
+        <v>0.23777186490357893</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.28392353521564917</v>
+        <v>-1.2551093861444373</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>20.70689039628704</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.4109139946787358</v>
+        <v>-0.03632555163144335</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6815800436446331</v>
+        <v>-1.2202978525273194</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.44666170522817505</v>
+        <v>-0.02296102853722693</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7315600943763887</v>
+        <v>-1.3279477038205725</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>21.420921099607284</v>
+        <v>6.0</v>
       </c>
       <c r="B31" t="n">
-        <v>0.17698631606396892</v>
+        <v>-0.27499954029399776</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7864410424152752</v>
+        <v>-1.1443153819507037</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1879597295258863</v>
+        <v>-0.28356696587808766</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8513305565654652</v>
+        <v>-1.2537763594862517</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>22.134951802927525</v>
+        <v>6.2</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5087665963689967</v>
+        <v>-0.4856462345297334</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07145719658782781</v>
+        <v>-0.9427513309438258</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5469391244885382</v>
+        <v>-0.5151933790554911</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07615318280993455</v>
+        <v>-1.0409882633239227</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>22.84898250624777</v>
+        <v>6.4</v>
       </c>
       <c r="B33" t="n">
-        <v>0.30170156744049414</v>
+        <v>-0.6452591384580906</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.5622839704695385</v>
+        <v>-0.6389730900159212</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3219511779236171</v>
+        <v>-0.6923462804093202</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.6083771045832694</v>
+        <v>-0.7144088875537821</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>23.563013209568012</v>
+        <v>6.6000000000000005</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.12604905252869864</v>
+        <v>-0.7367504352779002</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.5236848864651781</v>
+        <v>-0.2681698508670648</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.13786024561373755</v>
+        <v>-0.7958906965421493</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.557656405237777</v>
+        <v>-0.3121218612651271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>24.277043912888253</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.34622947163639256</v>
+        <v>-0.7508943799455831</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.07374132859688903</v>
+        <v>0.12705179002506192</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.36785178550403647</v>
+        <v>-0.8152450272604567</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.06826897714150604</v>
+        <v>0.11932532986074502</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>24.991074616208497</v>
+        <v>7.0</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.26125197967386715</v>
+        <v>-0.6872933991946276</v>
       </c>
       <c r="C36" t="n">
-        <v>0.26716955592365393</v>
+        <v>0.501929174403805</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.27202973069610176</v>
+        <v>-0.7495060848865958</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2860326830794152</v>
+        <v>0.5307024512575094</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>25.70510531952874</v>
+        <v>7.2</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.028061599593005603</v>
+        <v>-0.5542635501092005</v>
       </c>
       <c r="C37" t="n">
-        <v>0.350948187621048</v>
+        <v>0.8149711850470513</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.0284572797243185</v>
+        <v>-0.6073823599747692</v>
       </c>
       <c r="E37" t="n">
-        <v>0.36033054641448875</v>
+        <v>0.8761029027303178</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>26.41913602284898</v>
+        <v>7.4</v>
       </c>
       <c r="B38" t="n">
-        <v>0.203022868113618</v>
+        <v>-0.36767503879034324</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2733192306261514</v>
+        <v>1.0328668383308997</v>
       </c>
       <c r="D38" t="n">
-        <v>0.20810070848314216</v>
+        <v>-0.40596707231097195</v>
       </c>
       <c r="E38" t="n">
-        <v>0.281941743184362</v>
+        <v>1.118413204900874</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>27.133166726169225</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="B39" t="n">
-        <v>0.32172467503579255</v>
+        <v>-0.1489154899929581</v>
       </c>
       <c r="C39" t="n">
-        <v>0.025837621377293982</v>
+        <v>1.1342612431476982</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3350515704879759</v>
+        <v>-0.16852985731313286</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03856955814025425</v>
+        <v>1.2335581009841805</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>27.84719742948947</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2034066557344575</v>
+        <v>0.07774943288150409</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.3613720417497101</v>
+        <v>1.111946960171302</v>
       </c>
       <c r="D40" t="n">
-        <v>0.22094821157919262</v>
+        <v>0.07837368605306647</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.3669446343780385</v>
+        <v>1.2130091995837162</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>28.56122813280971</v>
+        <v>8.0</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.1460296905538049</v>
+        <v>0.28807454960835016</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.543711264619428</v>
+        <v>0.973244519442161</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1438020386221467</v>
+        <v>0.30809655576903866</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.5791887190846438</v>
+        <v>1.0642935120785724</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>29.275258836129954</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.4357931561201409</v>
+        <v>0.4606265719688813</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.17289119228764718</v>
+        <v>0.7385734512738736</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.4601453611316775</v>
+        <v>0.49699315041601116</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.20291029235782235</v>
+        <v>0.8094904796912316</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>29.989289539450198</v>
+        <v>8.4</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.3160790398876222</v>
+        <v>0.5791276041126584</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4999963148349319</v>
+        <v>0.4384592391383134</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.34546072591593197</v>
+        <v>0.6270302497859602</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5199642011875814</v>
+        <v>0.4819783451480127</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>30.703320242770438</v>
+        <v>8.6</v>
       </c>
       <c r="B44" t="n">
-        <v>0.16823536700499583</v>
+        <v>0.6340785189161587</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7257702935809197</v>
+        <v>0.10941197434910381</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1691384801335143</v>
+        <v>0.6876102480229954</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7821994530848991</v>
+        <v>0.12190559415888148</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>31.417350946090682</v>
+        <v>8.8</v>
       </c>
       <c r="B45" t="n">
-        <v>0.52199794341014</v>
+        <v>0.6234920044591821</v>
       </c>
       <c r="C45" t="n">
-        <v>0.15520410410368082</v>
+        <v>-0.2107542827708479</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5567799832720111</v>
+        <v>0.6764126514407299</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1824104668674656</v>
+        <v>-0.22898555170688634</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>32.131381649410926</v>
+        <v>9.0</v>
       </c>
       <c r="B46" t="n">
-        <v>0.3368159358469714</v>
+        <v>0.5526853070153526</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.6264154575341396</v>
+        <v>-0.4875403766279512</v>
       </c>
       <c r="D46" t="n">
-        <v>0.36763019218765147</v>
+        <v>0.5991929450338855</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.6640352829970451</v>
+        <v>-0.5324937967527315</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>32.84541235273117</v>
+        <v>9.200000000000001</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.20656774927119792</v>
+        <v>0.43320512628615415</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.7406750864204948</v>
+        <v>-0.6937304657861666</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.21478255190364262</v>
+        <v>0.4686142729641994</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.8001912254790084</v>
+        <v>-0.7583935939851404</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>33.55944305605141</v>
+        <v>9.4</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.5257872083649194</v>
+        <v>0.2810652325431691</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.0696312337563015</v>
+        <v>-0.8122290222830602</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.5629078651607242</v>
+        <v>0.3023086452384104</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.08271249500726693</v>
+        <v>-0.8876288782310633</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>34.273473759371655</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.30096015533450643</v>
+        <v>0.1145571943607891</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6251392891990742</v>
+        <v>-0.8374570614411996</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.3254027661327348</v>
+        <v>0.12045471886689549</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6686365202951411</v>
+        <v>-0.9139122357870662</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>34.987504462691895</v>
+        <v>9.8</v>
       </c>
       <c r="B50" t="n">
-        <v>0.19492161336448374</v>
+        <v>-0.048063190386696236</v>
       </c>
       <c r="C50" t="n">
-        <v>0.629402501569218</v>
+        <v>-0.7751993902473124</v>
       </c>
       <c r="D50" t="n">
-        <v>0.20647737071586597</v>
+        <v>-0.05679198453699081</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6758614062292907</v>
+        <v>-0.8436003645270367</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>35.701535166012135</v>
+        <v>10.0</v>
       </c>
       <c r="B51" t="n">
-        <v>0.45209524218656544</v>
+        <v>-0.1907112271010762</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0421880086788117</v>
+        <v>-0.6410087244209319</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4823855262609208</v>
+        <v>-0.21167872246962155</v>
       </c>
       <c r="E51" t="n">
-        <v>0.044697885108629445</v>
+        <v>-0.6939535861932854</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>36.41556586933238</v>
+        <v>10.200000000000001</v>
       </c>
       <c r="B52" t="n">
-        <v>0.27286635389073843</v>
+        <v>-0.3011680844960189</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.48056738241997216</v>
+        <v>-0.4574585991570472</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2903371662751677</v>
+        <v>-0.33075058822467235</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.513338762732622</v>
+        <v>-0.490099033709743</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>37.12959657265262</v>
+        <v>10.4</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.11037062687517374</v>
+        <v>-0.3721463998447196</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.5042281563328229</v>
+        <v>-0.2506794265574266</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.11716094611161997</v>
+        <v>-0.40604736291617716</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.5333976648194381</v>
+        <v>-0.2611753924625709</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>37.843627275972864</v>
+        <v>10.600000000000001</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.3520971062301402</v>
+        <v>-0.401633533288487</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.13631593345113555</v>
+        <v>-0.04668639748480552</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.37139739201981053</v>
+        <v>-0.4354946377689431</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.14155262806078392</v>
+        <v>-0.03622769544415609</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>38.55765797929311</v>
+        <v>10.8</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.2966426860801037</v>
+        <v>-0.39252269944293633</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2715362208785115</v>
+        <v>0.13198846406445192</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.31264138387435997</v>
+        <v>-0.4224969176090564</v>
       </c>
       <c r="E55" t="n">
-        <v>0.28397419235927057</v>
+        <v>0.15957574177121903</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>39.27168868261335</v>
+        <v>11.0</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.017727499410365978</v>
+        <v>-0.3516386137350169</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4600608434280269</v>
+        <v>0.2689168798286648</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.021741889874873157</v>
+        <v>-0.37484892258392877</v>
       </c>
       <c r="E56" t="n">
-        <v>0.47998924268187787</v>
+        <v>0.30790339234696057</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>39.98571938593359</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="B57" t="n">
-        <v>0.28086070267568625</v>
+        <v>-0.2883416701995374</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3191853864251318</v>
+        <v>0.35533111938034745</v>
       </c>
       <c r="D57" t="n">
-        <v>0.29169985951336097</v>
+        <v>-0.30316892714235205</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3392427036420909</v>
+        <v>0.3990370494115656</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.21294084982386524</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.3904680146288928</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-0.2191111686546989</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.4322898714233189</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>11.600000000000001</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.13515813798028553</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.38073060072982884</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-0.13363009747672738</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.4150918130606222</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.06286349618748248</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.33786660738765806</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.055544209618025225</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.36095859848306483</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.0012455164681636492</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.2764969529823015</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.009412005003443354</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.28671249824260503</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>12.200000000000001</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.047492610070184856</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.21140636197723744</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.058943419610952376</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.2094155665555791</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.08390743593426024</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.15502517018019818</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.09394794877275618</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.1434981345161148</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>12.600000000000001</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.11063770425412424</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.11548555770952253</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.1177524479349271</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.09851732311313838</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.1314197428336767</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.09553032050814257</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.13499128003884517</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.07786682399256557</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.14998303164734153</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.09241616861735694</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.1503373667366575</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.07860539792601824</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.16902546465851875</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.09879120467823367</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.16731140666650995</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.09239313498912011</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.18944863917609198</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.10437807358822683</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.18737529293655128</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.10735440894378331</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>13.600000000000001</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.2099866410739558</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.09816872909243526</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.20946482084546958</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.11054445193233874</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.2272946509029461</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.07076295190802653</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.23004232051475343</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.09060932170356621</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.23648692770617183</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.01646037877340844</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.24366384364231136</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.04019986406603153</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>14.200000000000001</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.2320388504377616</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-0.06524301589455232</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.24397074846492095</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-0.04225799621326531</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.20890621678139615</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-0.16901170092587262</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.2249449760202321</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.1517353837484097</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>14.600000000000001</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.16367622078209107</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0.28400602924228496</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.18222157257570523</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-0.27686824783358355</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.09555403616029044</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-0.3951736598716467</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.11423765038289696</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-0.4013081019234024</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.007008797319706024</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-0.48532443417238486</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.023016681656035015</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-0.5059755166254395</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>15.200000000000001</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-0.09605003927592802</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-0.5376943778017127</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.0855624362045154</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-0.5718958927332503</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="B78" t="n">
+        <v>-0.20462723829140098</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-0.5386242573998622</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.20208771204059547</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-0.5832038732788833</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.30750977798030676</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-0.47994944728574673</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-0.3145165127432878</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-0.5298658241557181</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.3925528500129295</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-0.36073402114061237</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.40955918763219545</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-0.40970517650535254</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.4482222822438742</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-0.18806378239835697</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.47436957489291126</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-0.22940258247151463</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.46518740407116854</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.023256416101369134</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0.49831626424812087</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-0.004285273145975783</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>16.400000000000002</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.43774222852165234</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.25210394675252606</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.4745877139803087</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.24311189876539108</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.36484793995500847</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.4733865297384324</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.4013983321402167</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.4855580521843583</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-0.2506341526532847</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.6610488725178422</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.28260957280061333</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.6944019968187891</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.10426458844250612</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.7913518998154437</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.12765406847622707</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.8431897243823328</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.0608444038535515</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.8459919316264687</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.049258119258740754</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.9111440945201519</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>17.400000000000002</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.22837788042891338</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.8146419216727524</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.23057628173092706</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.8860421555093255</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.3808965262331084</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.6965620083898092</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.3973266846786648</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.7660893317041898</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.5018196525573414</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.5010496281734188</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.5312814371388067</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.5605255324653377</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.577373877384275</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.24664629668965166</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.6171115102481356</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.2888584982455825</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.5982639930422171</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-0.04082094567323361</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.6442537926386418</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-0.02120208494372415</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>18.400000000000002</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5608539128107618</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-0.33113051323299936</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.60825439494389</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-0.33686284873179617</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.4677047399508712</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-0.5931369051280032</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.5114139786624607</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-0.6240347733221638</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.327396152254869</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-0.798391890238078</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.362647248814682</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-0.8513210485642285</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.15364608302084065</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-0.9244672909280554</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.17656656762379763</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-0.9937069291063938</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>19.200000000000003</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.03616936567761334</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-0.9575673233932507</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-0.02810366068932922</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-1.0354915428335392</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>19.400000000000002</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-0.2229200039987817</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-0.8941127363307788</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-0.23059248703279756</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-0.9721055926039103</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-0.3878225831426588</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-0.7411078987441835</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-0.4103799439536275</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-0.8105925827486818</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-0.5144894261851464</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-0.515256818845024</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-0.5494522690996169</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-0.5687101223742974</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-0.590684202387556</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-0.24095178221109087</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-0.634248298954685</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-0.27277602123934763</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>20.200000000000003</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.6095836121831926</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.05260311113983293</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-0.6570722229659034</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.0454566800449536</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>20.400000000000002</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.5704065973559989</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.33477249096944944</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-0.6168161728454615</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.3525020125756655</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-0.4783523182331084</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.5769511126572551</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-0.5189234833866698</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.6169542709279985</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.34387248377595053</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.7556915188710777</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-0.374616696166678</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.8129523759613868</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>-0.18138284151701603</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.8551309505208259</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0.19950250622105312</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.9228857659666879</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>21.200000000000003</v>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.007582616732956474</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.8684504878062687</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-0.011737552932517686</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.9390409310914676</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>21.400000000000002</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.16040842674965713</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.7982284359128002</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.1700146161570183</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.864029593403484</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.3068721793812105</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.6556918811402576</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.32858892056858197</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.7099967198021929</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.4190651231029296</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.45900675709911426</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.45005501818741356</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.49675854295013294</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.4883736779018989</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.23086121142075022</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.5249966052268598</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.24914902313271964</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>22.200000000000003</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.5109424606053001</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-0.004328978218737494</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.5492105560565407</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-0.006062222848261746</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>22.400000000000002</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.4877360393943666</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-0.22323095851466354</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.5237801804625845</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-0.24327993099612868</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.4240658586794062</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-0.40608017546333275</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.4545559894736553</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-0.44083986591764923</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.32867699249319454</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-0.5385550342875378</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.35114765685890814</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-0.5830930451503237</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.2125370698839583</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-0.6128595089325902</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.22558454650413662</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-0.6616120433503317</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>23.200000000000003</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.08749562108215503</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-0.6279344979075795</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.09083164411270053</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-0.6754280241361635</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>23.400000000000002</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.03501500435635859</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-0.5888467070688497</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0.040648371589380644</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-0.6303496347090766</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-0.14508565152104794</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-0.5055019061925329</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-0.15811753444483143</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-0.5375251755558376</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-0.235130051705159</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-0.39091075684962867</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-0.2534424239639911</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-0.41150188661416465</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-0.3003152579049994</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-0.25927703305176175</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-0.3215604383425582</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-0.268083245593579</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>24.200000000000003</v>
+      </c>
+      <c r="B122" t="n">
+        <v>-0.33861481151232636</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-0.12418020568132071</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-0.360523016855391</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-0.1222901619348097</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>24.400000000000002</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-0.35052815399568726</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.002909895046111004</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-0.37116433759424355</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.013306386903644498</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="B124" t="n">
+        <v>-0.3385509398668</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.11361727573055778</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-0.3564905792854664</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.12968720433837613</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="B125" t="n">
+        <v>-0.306506535277096</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.20305767471012742</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-0.3209141085694004</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.22182661098937595</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-0.25885623074422337</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.2696625834938027</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-0.2694658226695642</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.2884798826384386</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>25.200000000000003</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-0.20009491763255008</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.31452308100222925</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-0.20710701578199006</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.3314241825032987</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>25.400000000000002</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-0.13431262959095908</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.3404187690392138</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-0.13823306088331208</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.354335639327254</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-0.0649654056755688</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.3507302176281956</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-0.06641949315351105</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.3615272334867844</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.00514206348167669</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.3484416084367179</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.0055853044440710275</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.35678253928136816</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.07369843552664013</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.3354101673109595</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.07566106508478644</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.34248809547151204</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>26.200000000000003</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.13861901077415734</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.31202446857814076</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.1419854725559373</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.319207371898969</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.19775433944873527</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.27730038885784536</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.20266877729932128</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.2857568380060027</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.2486599170809746</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.22938486508640196</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.25545224160633195</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.23975645602415308</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.2884991503529974</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.16636217041038867</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.29755518632998873</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.1785404822226581</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.3141251682103314</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.0872060956091228</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.3257261703078901</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.10025413577470081</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>27.200000000000003</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.3223518891632356</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-0.0073113992200312915</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.3365144479086543</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.00492392039237783</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>27.400000000000002</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.3103868397104718</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-0.1139409954339078</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.32673498113131555</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-0.10471125865039217</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.2763636834220323</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-0.22665941572616471</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.29406048810054497</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-0.22278588257427578</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.21988701183990034</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-0.3368533930403896</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.23764414332199055</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-0.34042833590136623</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.14249014919338754</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-0.43400267430708456</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.15866155369453536</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-0.4464457277959648</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>28.200000000000003</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.04791054212288685</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-0.5068040657060994</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.06066311822742543</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-0.5285177740828287</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>28.400000000000002</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-0.05789293854449272</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-0.5446007741493696</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-0.05035172246028588</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-0.5747541182369926</v>
       </c>
     </row>
   </sheetData>
